--- a/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.03547634928857</v>
+        <v>1.946439714598196</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.168391397208865</v>
+        <v>-8.447387225337557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.898008572572683</v>
+        <v>-5.094824605273155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.746630953001986</v>
+        <v>-2.17598824001956</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06608705558826139</v>
+        <v>0.0684827735171406</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1451421991372548</v>
+        <v>-0.130943977791353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07331845116490761</v>
+        <v>-0.09275232639306817</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1343775491370221</v>
+        <v>-0.1777501590074042</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.18214584139352</v>
+        <v>21.76114299252958</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.853911907277295</v>
+        <v>9.845191161210067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.21138827151865</v>
+        <v>13.25915534627363</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.546072193463556</v>
+        <v>7.284526016025139</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.093722253302589</v>
+        <v>1.104267792236392</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1679052613127168</v>
+        <v>0.1861283648389653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3516388660118908</v>
+        <v>0.3276567287982178</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.054419001259462</v>
+        <v>0.9315831449019342</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.843553016659418</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.368226466202065</v>
+        <v>6.368226466202059</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2650026320163154</v>
@@ -749,7 +749,7 @@
         <v>0.1959217576558254</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2915756603653055</v>
+        <v>0.2915756603653052</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8525531826468652</v>
+        <v>-0.4126444822998941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.822687442468498</v>
+        <v>-2.206215789267198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.902615508112332</v>
+        <v>-1.713122251632593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1359315440883773</v>
+        <v>0.2347863019501391</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03375438633568898</v>
+        <v>-0.02680122035025708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03424253848924605</v>
+        <v>-0.04472177657475414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08494874992505651</v>
+        <v>-0.07259502251020601</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.003491031477584799</v>
+        <v>0.0007923834469537166</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.74022897542298</v>
+        <v>11.39722261677444</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.29112997642657</v>
+        <v>11.64657887785501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.921682198455381</v>
+        <v>10.16019233261326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12.20092592082717</v>
+        <v>13.35235884469646</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6863067686842889</v>
+        <v>0.7187228169553808</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2835023527633687</v>
+        <v>0.2612969460585668</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6348420210608042</v>
+        <v>0.6195445489395066</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6854547112723867</v>
+        <v>0.7347790692185766</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.222759618554079</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.641686881445074</v>
+        <v>2.641686881445065</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6789385866943428</v>
@@ -849,7 +849,7 @@
         <v>0.2085796060729506</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1349960860914836</v>
+        <v>0.1349960860914832</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.166193047263841</v>
+        <v>4.92559594052129</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.145912240714572</v>
+        <v>-2.702080626751455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.881959183961546</v>
+        <v>-2.390191031466488</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.769790862120044</v>
+        <v>-3.540982372116795</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.230346106144956</v>
+        <v>0.2207530595455274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04350483121322755</v>
+        <v>-0.05225694065577226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1007654934648793</v>
+        <v>-0.0849584041037246</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.160308849712735</v>
+        <v>-0.159786372872367</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.77858636452435</v>
+        <v>19.9810703332704</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.89810132546295</v>
+        <v>14.58937173118912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.86917585709745</v>
+        <v>12.74224677362421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.336385918123888</v>
+        <v>8.739348697995334</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.349269574224797</v>
+        <v>1.311838282750288</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3387166901308164</v>
+        <v>0.3279170972015162</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6249614645529561</v>
+        <v>0.6031233610911381</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.574634217453277</v>
+        <v>0.5360830193283048</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.164673906688621</v>
+        <v>2.982913447668118</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.192858326483308</v>
+        <v>-3.445490462636173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.572589883243606</v>
+        <v>-1.50607553193933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-10.4634977086853</v>
+        <v>-10.83210113093291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1124878172305248</v>
+        <v>0.1509686260433308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05113019579434785</v>
+        <v>-0.05341924107927501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05997726323280819</v>
+        <v>-0.03211498262973731</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3003633427977044</v>
+        <v>-0.3126608697200192</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.41450629076179</v>
+        <v>15.38673897652138</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.9396042340206</v>
+        <v>12.87959806063845</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.64570547213916</v>
+        <v>15.08826272525844</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.94680879758978</v>
+        <v>5.568943135121957</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.24434971482477</v>
+        <v>1.342786870690915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2429867615688982</v>
+        <v>0.2480689900882258</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4084917915837855</v>
+        <v>0.4246767975189919</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2783974551527008</v>
+        <v>0.2479451220257471</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.906074933487481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-1.788419395026289</v>
+        <v>-1.788419395026297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1086608287812135</v>
@@ -1049,7 +1049,7 @@
         <v>0.08234767056188899</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.07392114341256383</v>
+        <v>-0.07392114341256419</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.94251471809032</v>
+        <v>-11.64989480623997</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.368902261892535</v>
+        <v>-8.808572755892886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.361643762916628</v>
+        <v>-5.099947463939624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.5199401666968</v>
+        <v>-11.26031226330888</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3831118389057024</v>
+        <v>-0.3637927747795314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1545788080675097</v>
+        <v>-0.1450068322603679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08354010388018204</v>
+        <v>-0.07866352845035625</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3435582756413771</v>
+        <v>-0.371299150676995</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.941223259643504</v>
+        <v>6.609531941390077</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.00522176439621</v>
+        <v>11.52064901898234</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.678007610544</v>
+        <v>14.34180107110783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.372171471277412</v>
+        <v>6.609615958789377</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2765719161327893</v>
+        <v>0.3100718881744118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2849081622899244</v>
+        <v>0.2416772686306028</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2714819807704299</v>
+        <v>0.2627409673663557</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3560715570547501</v>
+        <v>0.3727012811134111</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>2.226357495886338</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.480189761162817</v>
+        <v>4.480189761162828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3972966759111006</v>
@@ -1149,7 +1149,7 @@
         <v>0.05267100452150077</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1520346744839487</v>
+        <v>0.1520346744839491</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.336024465310578</v>
+        <v>-0.988422186684265</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.04913099616425</v>
+        <v>-13.86474652052109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.310241265771547</v>
+        <v>-8.317179899865526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.357523808116071</v>
+        <v>-3.346683077313398</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.08229466528200442</v>
+        <v>-0.05318222271376931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2339448736572917</v>
+        <v>-0.2436982006292962</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1582127041538135</v>
+        <v>-0.1728586868498767</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0975727530177186</v>
+        <v>-0.09680681516702115</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>13.25351472446622</v>
+        <v>13.13151960333504</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.656924659066278</v>
+        <v>3.847837002115549</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.93773414815236</v>
+        <v>11.64275942215047</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.12032535807142</v>
+        <v>11.81546944012747</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.124830794898852</v>
+        <v>1.15865892106356</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09370742598316502</v>
+        <v>0.08363710247213665</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3254740399491104</v>
+        <v>0.3096852660442532</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.471395749694528</v>
+        <v>0.467729374513864</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.315491867246033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.06644275019364</v>
+        <v>2.066442750193642</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.302276393302891</v>
@@ -1249,7 +1249,7 @@
         <v>0.2298049938092991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1688312501547522</v>
+        <v>0.1688312501547525</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7768210515282307</v>
+        <v>0.6366142900704604</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.669683063283814</v>
+        <v>-6.738848442713295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.002146216011677</v>
+        <v>2.157621004672165</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.290570361828439</v>
+        <v>-1.990486427803011</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.03214192116841563</v>
+        <v>0.028962845217256</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1311996315453101</v>
+        <v>-0.1320840174748369</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04536507303797029</v>
+        <v>0.05484723739150052</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1497841017248203</v>
+        <v>-0.1395825193126064</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.8791025912875</v>
+        <v>11.48331379251279</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.098224905752457</v>
+        <v>5.633691224825119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.42707783592009</v>
+        <v>14.28214244189166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.149277839616851</v>
+        <v>6.141497038701869</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6850036916410884</v>
+        <v>0.6700477568677471</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1362509788667381</v>
+        <v>0.1239886471612221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4488497725943471</v>
+        <v>0.4351586478636761</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6485928605878525</v>
+        <v>0.6566331444265324</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>4.894971582069063</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.074009845792078</v>
+        <v>7.074009845792073</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1312654278942133</v>
@@ -1349,7 +1349,7 @@
         <v>0.08114712055014768</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.170386047716303</v>
+        <v>0.1703860477163029</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-9.049782601821063</v>
+        <v>-8.69080600306634</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.948376989279427</v>
+        <v>-2.144045643379989</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.7694446358722246</v>
+        <v>-0.6775767909640126</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9140958948904759</v>
+        <v>0.9675112764034365</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2742868333145746</v>
+        <v>-0.2708680563573672</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.03355987698374798</v>
+        <v>-0.0406401494426194</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01223054339045686</v>
+        <v>-0.01051697941261615</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01963642138575519</v>
+        <v>0.01849185589010834</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8041614676901312</v>
+        <v>1.545667865592473</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.252541299787701</v>
+        <v>9.084589820790184</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.90191790638998</v>
+        <v>11.10700972951186</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12.88889988688909</v>
+        <v>13.00933606286793</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03202577425785123</v>
+        <v>0.05571922940241023</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.188462215331142</v>
+        <v>0.1830425312418136</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1882707631577409</v>
+        <v>0.1966863481963041</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3386667148695582</v>
+        <v>0.3426582218432596</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>5.339547642261238</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3.66558450565479</v>
+        <v>3.665584505654795</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1994589171846545</v>
@@ -1449,7 +1449,7 @@
         <v>0.1282881604406794</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.1524267439584396</v>
+        <v>0.1524267439584398</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.838468544529067</v>
+        <v>2.094536610340231</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2480159247414332</v>
+        <v>-0.3970658107834502</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.638472602441384</v>
+        <v>2.563771925565693</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.248898721709579</v>
+        <v>1.230123329073517</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08344993447248172</v>
+        <v>0.09368781357187841</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.004462165255693227</v>
+        <v>-0.007741884013044361</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06145169763605939</v>
+        <v>0.06029524956935145</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0485247103652443</v>
+        <v>0.04779045028000228</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.728180299344579</v>
+        <v>6.766273007693741</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.016170237641985</v>
+        <v>4.978092709752826</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.01423003599006</v>
+        <v>8.068235530903056</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.925443940396426</v>
+        <v>5.97227486999901</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3291212225884413</v>
+        <v>0.3353103808729127</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.100714022819172</v>
+        <v>0.09744356630668034</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2007797902050981</v>
+        <v>0.201591727308202</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2653785663012232</v>
+        <v>0.2656016876234636</v>
       </c>
     </row>
     <row r="31">
